--- a/Project Outputs for ESE516_TeamC&K_Project_/BOM/Bill of Materials-ESE516_TeamC&K.xlsx
+++ b/Project Outputs for ESE516_TeamC&K_Project_/BOM/Bill of Materials-ESE516_TeamC&K.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\ESE516_TeamC-K_PCB\Project Outputs for ESE516_TeamC&amp;K_Project_\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E20FD41A-1651-4093-8430-94C620BE7DE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AA3DC7D-F701-498E-B831-CC292F2376A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{C3002435-F3FC-454E-ABB9-810C1FA33D55}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{99361E48-0F2D-4E01-A14D-1CC452BFF333}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-ESE516_TeamC&amp;" sheetId="1" r:id="rId1"/>
@@ -1269,7 +1269,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37B34A8-84CB-41DD-9C32-7BD7B42A1112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9148BF5-AA4B-428B-9923-3A2A10713C5E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
